--- a/Results/150 model - 2.277 speed.xlsx
+++ b/Results/150 model - 2.277 speed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Documents\GitHub\Bike-Sharing-Simulation\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99BE0D42-99D8-4C00-9494-465032D15EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D2AE5-0C28-4BE2-9247-53CE96A8EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{0FFBF88E-C147-464B-AD57-C6FEEB8E8E56}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="30876" windowHeight="12120" xr2:uid="{0FFBF88E-C147-464B-AD57-C6FEEB8E8E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,48 +495,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,13 +509,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BAA0929-5A77-447D-9838-B67F8A01E08F}" name="Table1" displayName="Table1" ref="A1:D136" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BAA0929-5A77-447D-9838-B67F8A01E08F}" name="Table1" displayName="Table1" ref="A1:D136" totalsRowShown="0">
   <autoFilter ref="A1:D136" xr:uid="{2BAA0929-5A77-447D-9838-B67F8A01E08F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F3AFF42A-4F09-4B6E-8055-66B5C6755189}" name="Agents ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{5D0FCFE4-6BCE-401E-B00B-CE091D450AFE}" name="Total distance (meters)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1F7C3B99-95E7-4258-9CA9-385EA3531E41}" name="Total Time (seconds)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{46F396FA-F75A-4222-A245-BAA4CF7E2030}" name="Average speed" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F3AFF42A-4F09-4B6E-8055-66B5C6755189}" name="Agents ID"/>
+    <tableColumn id="2" xr3:uid="{5D0FCFE4-6BCE-401E-B00B-CE091D450AFE}" name="Total distance (meters)"/>
+    <tableColumn id="3" xr3:uid="{1F7C3B99-95E7-4258-9CA9-385EA3531E41}" name="Total Time (seconds)"/>
+    <tableColumn id="4" xr3:uid="{46F396FA-F75A-4222-A245-BAA4CF7E2030}" name="Average speed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,7 +841,7 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3993.375</v>
+        <v>3993.3611111111109</v>
       </c>
       <c r="C2" s="1">
-        <v>1437.615</v>
+        <v>143.761</v>
       </c>
       <c r="D2" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -926,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>586.27499999999998</v>
+        <v>586.27777777777771</v>
       </c>
       <c r="C3" s="1">
-        <v>211.059</v>
+        <v>21.106000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,13 +899,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3880.9861111111109</v>
+        <v>3881</v>
       </c>
       <c r="C4" s="1">
-        <v>1397.155</v>
+        <v>139.71600000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,13 +913,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4479.1750000000002</v>
+        <v>4479.166666666667</v>
       </c>
       <c r="C5" s="1">
-        <v>1612.5029999999999</v>
+        <v>161.25</v>
       </c>
       <c r="D5" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1632.9972222222223</v>
+        <v>1633</v>
       </c>
       <c r="C6" s="1">
-        <v>587.87900000000002</v>
+        <v>58.787999999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2084.713888888889</v>
+        <v>2084.6944444444443</v>
       </c>
       <c r="C7" s="1">
-        <v>750.49699999999996</v>
+        <v>75.049000000000007</v>
       </c>
       <c r="D7" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2723.4611111111112</v>
+        <v>2723.4722222222226</v>
       </c>
       <c r="C8" s="1">
-        <v>980.44600000000003</v>
+        <v>98.045000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1010,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3992.1833333333329</v>
+        <v>3992.166666666667</v>
       </c>
       <c r="C9" s="1">
-        <v>1437.1859999999999</v>
+        <v>143.71799999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1024,13 +983,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8289.052777777777</v>
+        <v>8289.0555555555566</v>
       </c>
       <c r="C10" s="1">
-        <v>2984.0590000000002</v>
+        <v>298.40600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,13 +997,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3365.2361111111109</v>
+        <v>3365.25</v>
       </c>
       <c r="C11" s="1">
-        <v>1211.4849999999999</v>
+        <v>121.149</v>
       </c>
       <c r="D11" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2145.3249999999998</v>
+        <v>2145.3333333333335</v>
       </c>
       <c r="C12" s="1">
-        <v>772.31700000000001</v>
+        <v>77.231999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3829.3666666666663</v>
+        <v>3829.3611111111109</v>
       </c>
       <c r="C13" s="1">
-        <v>1378.5719999999999</v>
+        <v>137.857</v>
       </c>
       <c r="D13" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1046.7444444444443</v>
+        <v>1046.75</v>
       </c>
       <c r="C14" s="1">
-        <v>376.82799999999997</v>
+        <v>37.683</v>
       </c>
       <c r="D14" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1094,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3789.8027777777775</v>
+        <v>3789.8055555555557</v>
       </c>
       <c r="C15" s="1">
-        <v>1364.329</v>
+        <v>136.43299999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1108,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3405.7055555555553</v>
+        <v>3405.7222222222226</v>
       </c>
       <c r="C16" s="1">
-        <v>1226.0540000000001</v>
+        <v>122.60599999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1122,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>541.84166666666658</v>
+        <v>541.83333333333337</v>
       </c>
       <c r="C17" s="1">
-        <v>195.06299999999999</v>
+        <v>19.506</v>
       </c>
       <c r="D17" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1136,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2001.3472222222222</v>
+        <v>2001.3611111111113</v>
       </c>
       <c r="C18" s="1">
-        <v>720.48500000000001</v>
+        <v>72.049000000000007</v>
       </c>
       <c r="D18" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1150,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1259.8972222222224</v>
+        <v>1259.8888888888889</v>
       </c>
       <c r="C19" s="1">
-        <v>453.56299999999999</v>
+        <v>45.356000000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1164,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>2032.9055555555556</v>
+        <v>2032.8888888888889</v>
       </c>
       <c r="C20" s="1">
-        <v>731.846</v>
+        <v>73.183999999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1178,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>3275.1972222222221</v>
+        <v>3275.1944444444443</v>
       </c>
       <c r="C21" s="1">
-        <v>1179.0709999999999</v>
+        <v>117.907</v>
       </c>
       <c r="D21" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,13 +1151,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1255.3972222222224</v>
+        <v>1255.3888888888889</v>
       </c>
       <c r="C22" s="1">
-        <v>451.94299999999998</v>
+        <v>45.194000000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1206,13 +1165,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2847.3833333333332</v>
+        <v>2847.3888888888891</v>
       </c>
       <c r="C23" s="1">
-        <v>1025.058</v>
+        <v>102.506</v>
       </c>
       <c r="D23" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1220,13 +1179,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>6514.2305555555549</v>
+        <v>6514.2222222222217</v>
       </c>
       <c r="C24" s="1">
-        <v>2345.123</v>
+        <v>234.512</v>
       </c>
       <c r="D24" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1234,13 +1193,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>5529.3194444444443</v>
+        <v>5529.3055555555557</v>
       </c>
       <c r="C25" s="1">
-        <v>1990.5550000000001</v>
+        <v>199.05500000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,13 +1207,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>6512.083333333333</v>
+        <v>6512.0833333333339</v>
       </c>
       <c r="C26" s="1">
-        <v>2344.35</v>
+        <v>234.435</v>
       </c>
       <c r="D26" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1262,13 +1221,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2507.6361111111109</v>
+        <v>2507.6388888888891</v>
       </c>
       <c r="C27" s="1">
-        <v>902.74900000000002</v>
+        <v>90.275000000000006</v>
       </c>
       <c r="D27" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1276,13 +1235,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>864.00833333333321</v>
+        <v>864.02777777777771</v>
       </c>
       <c r="C28" s="1">
-        <v>311.04300000000001</v>
+        <v>31.105</v>
       </c>
       <c r="D28" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1290,13 +1249,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>982.93333333333328</v>
+        <v>982.94444444444446</v>
       </c>
       <c r="C29" s="1">
-        <v>353.85599999999999</v>
+        <v>35.386000000000003</v>
       </c>
       <c r="D29" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1304,13 +1263,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.2944444444444443</v>
+        <v>1.3055555555555556</v>
       </c>
       <c r="C30" s="1">
-        <v>0.46600000000000003</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,13 +1277,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1298.9805555555556</v>
+        <v>1298.9722222222222</v>
       </c>
       <c r="C31" s="1">
-        <v>467.63299999999998</v>
+        <v>46.762999999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,13 +1291,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>1385.4222222222222</v>
+        <v>1385.4444444444446</v>
       </c>
       <c r="C32" s="1">
-        <v>498.75200000000001</v>
+        <v>49.875999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1346,13 +1305,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>2742.8111111111111</v>
+        <v>2742.8055555555557</v>
       </c>
       <c r="C33" s="1">
-        <v>987.41200000000003</v>
+        <v>98.741</v>
       </c>
       <c r="D33" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1360,13 +1319,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>6932.4111111111106</v>
+        <v>6932.416666666667</v>
       </c>
       <c r="C34" s="1">
-        <v>2495.6680000000001</v>
+        <v>249.56700000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,10 +1336,10 @@
         <v>8242.0277777777774</v>
       </c>
       <c r="C35" s="1">
-        <v>2967.13</v>
+        <v>296.71300000000002</v>
       </c>
       <c r="D35" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1388,13 +1347,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>845.28888888888889</v>
+        <v>845.27777777777771</v>
       </c>
       <c r="C36" s="1">
-        <v>304.30399999999997</v>
+        <v>30.43</v>
       </c>
       <c r="D36" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,13 +1361,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>2063.3833333333332</v>
+        <v>2063.3888888888891</v>
       </c>
       <c r="C37" s="1">
-        <v>742.81799999999998</v>
+        <v>74.281999999999996</v>
       </c>
       <c r="D37" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1416,13 +1375,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1376.1555555555556</v>
+        <v>1376.1388888888889</v>
       </c>
       <c r="C38" s="1">
-        <v>495.416</v>
+        <v>49.540999999999997</v>
       </c>
       <c r="D38" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1430,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1597.4944444444445</v>
+        <v>1597.5</v>
       </c>
       <c r="C39" s="1">
-        <v>575.09799999999996</v>
+        <v>57.51</v>
       </c>
       <c r="D39" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1444,13 +1403,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>2160.672222222222</v>
+        <v>2160.6666666666665</v>
       </c>
       <c r="C40" s="1">
-        <v>777.84199999999998</v>
+        <v>77.784000000000006</v>
       </c>
       <c r="D40" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,13 +1417,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1426.9083333333333</v>
+        <v>1426.9166666666667</v>
       </c>
       <c r="C41" s="1">
-        <v>513.68700000000001</v>
+        <v>51.369</v>
       </c>
       <c r="D41" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,13 +1431,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>2144.6083333333336</v>
+        <v>2144.6111111111109</v>
       </c>
       <c r="C42" s="1">
-        <v>772.05899999999997</v>
+        <v>77.206000000000003</v>
       </c>
       <c r="D42" s="1">
-        <v>2.7777777777777781</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,13 +1445,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>4513.3777777777777</v>
+        <v>4513.3611111111113</v>
       </c>
       <c r="C43" s="1">
-        <v>1624.816</v>
+        <v>162.48099999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>2.7777777777777781</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1500,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>3511.5666666666666</v>
+        <v>3511.5555555555557</v>
       </c>
       <c r="C44" s="1">
-        <v>1264.164</v>
+        <v>126.416</v>
       </c>
       <c r="D44" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,13 +1473,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1719.9305555555554</v>
+        <v>1719.9166666666667</v>
       </c>
       <c r="C45" s="1">
-        <v>619.17499999999995</v>
+        <v>61.917000000000002</v>
       </c>
       <c r="D45" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,13 +1487,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>2453.3527777777776</v>
+        <v>2453.3611111111109</v>
       </c>
       <c r="C46" s="1">
-        <v>883.20699999999999</v>
+        <v>88.320999999999998</v>
       </c>
       <c r="D46" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,13 +1501,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>2718.625</v>
+        <v>2718.6388888888891</v>
       </c>
       <c r="C47" s="1">
-        <v>978.70500000000004</v>
+        <v>97.870999999999995</v>
       </c>
       <c r="D47" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1556,13 +1515,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>10426.005555555555</v>
+        <v>10426</v>
       </c>
       <c r="C48" s="1">
-        <v>3753.3620000000001</v>
+        <v>375.33600000000001</v>
       </c>
       <c r="D48" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,13 +1529,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1508.4138888888888</v>
+        <v>1508.4166666666667</v>
       </c>
       <c r="C49" s="1">
-        <v>543.029</v>
+        <v>54.302999999999997</v>
       </c>
       <c r="D49" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,13 +1543,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>15.563888888888888</v>
+        <v>15.555555555555557</v>
       </c>
       <c r="C50" s="1">
-        <v>5.6029999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D50" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,13 +1557,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>671.7</v>
+        <v>671.69444444444446</v>
       </c>
       <c r="C51" s="1">
-        <v>241.81200000000001</v>
+        <v>24.181000000000001</v>
       </c>
       <c r="D51" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1612,13 +1571,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>2356.0583333333329</v>
+        <v>2356.0555555555557</v>
       </c>
       <c r="C52" s="1">
-        <v>848.18100000000004</v>
+        <v>84.817999999999998</v>
       </c>
       <c r="D52" s="1">
-        <v>2.7777777777777772</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1626,13 +1585,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>13.311111111111112</v>
+        <v>13.305555555555557</v>
       </c>
       <c r="C53" s="1">
-        <v>4.7919999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D53" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,10 +1602,10 @@
         <v>1116.7222222222222</v>
       </c>
       <c r="C54" s="1">
-        <v>402.02</v>
+        <v>40.201999999999998</v>
       </c>
       <c r="D54" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,13 +1613,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>2171.1472222222219</v>
+        <v>2171.1388888888891</v>
       </c>
       <c r="C55" s="1">
-        <v>781.61300000000006</v>
+        <v>78.161000000000001</v>
       </c>
       <c r="D55" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,13 +1627,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>7668.7027777777766</v>
+        <v>7668.6944444444453</v>
       </c>
       <c r="C56" s="1">
-        <v>2760.7330000000002</v>
+        <v>276.07299999999998</v>
       </c>
       <c r="D56" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,13 +1641,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>1417.6083333333333</v>
+        <v>1417.6111111111113</v>
       </c>
       <c r="C57" s="1">
-        <v>510.339</v>
+        <v>51.033999999999999</v>
       </c>
       <c r="D57" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1696,13 +1655,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>2229.7833333333328</v>
+        <v>2229.7777777777778</v>
       </c>
       <c r="C58" s="1">
-        <v>802.72199999999998</v>
+        <v>80.272000000000006</v>
       </c>
       <c r="D58" s="1">
-        <v>2.7777777777777772</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,13 +1669,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>1683.7694444444444</v>
+        <v>1683.7777777777778</v>
       </c>
       <c r="C59" s="1">
-        <v>606.15700000000004</v>
+        <v>60.616</v>
       </c>
       <c r="D59" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,13 +1683,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>1607.6444444444444</v>
+        <v>1607.6388888888889</v>
       </c>
       <c r="C60" s="1">
-        <v>578.75199999999995</v>
+        <v>57.875</v>
       </c>
       <c r="D60" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,13 +1697,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>1.7361111111111112</v>
+        <v>1.7222222222222221</v>
       </c>
       <c r="C61" s="1">
-        <v>0.625</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D61" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,13 +1711,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>397.14444444444445</v>
+        <v>397.13888888888886</v>
       </c>
       <c r="C62" s="1">
-        <v>142.97200000000001</v>
+        <v>14.297000000000001</v>
       </c>
       <c r="D62" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,13 +1725,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>2.8111111111111109</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="C63" s="1">
-        <v>1.012</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D63" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,13 +1739,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>9.875</v>
+        <v>9.8888888888888893</v>
       </c>
       <c r="C64" s="1">
-        <v>3.5550000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D64" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,13 +1753,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>16.802777777777777</v>
+        <v>16.805555555555554</v>
       </c>
       <c r="C65" s="1">
-        <v>6.0490000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D65" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,13 +1767,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>6832.1722222222224</v>
+        <v>6832.1944444444453</v>
       </c>
       <c r="C66" s="1">
-        <v>2459.5819999999999</v>
+        <v>245.959</v>
       </c>
       <c r="D66" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,13 +1781,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>1314.9305555555554</v>
+        <v>1314.9166666666667</v>
       </c>
       <c r="C67" s="1">
-        <v>473.375</v>
+        <v>47.337000000000003</v>
       </c>
       <c r="D67" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,13 +1795,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>1387.65</v>
+        <v>1387.6666666666667</v>
       </c>
       <c r="C68" s="1">
-        <v>499.55399999999997</v>
+        <v>49.956000000000003</v>
       </c>
       <c r="D68" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,13 +1809,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>1593.7583333333332</v>
+        <v>1593.75</v>
       </c>
       <c r="C69" s="1">
-        <v>573.75300000000004</v>
+        <v>57.375</v>
       </c>
       <c r="D69" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,13 +1823,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>747.93888888888887</v>
+        <v>747.94444444444446</v>
       </c>
       <c r="C70" s="1">
-        <v>269.25799999999998</v>
+        <v>26.925999999999998</v>
       </c>
       <c r="D70" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,13 +1837,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>16884.452777777777</v>
+        <v>16884.444444444445</v>
       </c>
       <c r="C71" s="1">
-        <v>6078.4030000000002</v>
+        <v>607.84</v>
       </c>
       <c r="D71" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,13 +1851,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>4152.2972222222224</v>
+        <v>4152.3055555555557</v>
       </c>
       <c r="C72" s="1">
-        <v>1494.827</v>
+        <v>149.483</v>
       </c>
       <c r="D72" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,13 +1865,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1475.4777777777776</v>
+        <v>1475.4722222222222</v>
       </c>
       <c r="C73" s="1">
-        <v>531.17200000000003</v>
+        <v>53.116999999999997</v>
       </c>
       <c r="D73" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,13 +1879,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>1528.4</v>
+        <v>1528.3888888888889</v>
       </c>
       <c r="C74" s="1">
-        <v>550.22400000000005</v>
+        <v>55.021999999999998</v>
       </c>
       <c r="D74" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,13 +1893,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>1568.036111111111</v>
+        <v>1568.0277777777778</v>
       </c>
       <c r="C75" s="1">
-        <v>564.49300000000005</v>
+        <v>56.448999999999998</v>
       </c>
       <c r="D75" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,13 +1907,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>3706.1361111111109</v>
+        <v>3706.1388888888891</v>
       </c>
       <c r="C76" s="1">
-        <v>1334.2090000000001</v>
+        <v>133.42099999999999</v>
       </c>
       <c r="D76" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1962,13 +1921,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>5972.0777777777776</v>
+        <v>5972.0833333333339</v>
       </c>
       <c r="C77" s="1">
-        <v>2149.9479999999999</v>
+        <v>214.995</v>
       </c>
       <c r="D77" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,13 +1935,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>16525.338888888888</v>
+        <v>16525.333333333336</v>
       </c>
       <c r="C78" s="1">
-        <v>5949.1220000000003</v>
+        <v>594.91200000000003</v>
       </c>
       <c r="D78" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1990,13 +1949,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>7085.5666666666657</v>
+        <v>7085.5555555555557</v>
       </c>
       <c r="C79" s="1">
-        <v>2550.8040000000001</v>
+        <v>255.08</v>
       </c>
       <c r="D79" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,13 +1963,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>640.88611111111118</v>
+        <v>640.86111111111109</v>
       </c>
       <c r="C80" s="1">
-        <v>230.71899999999999</v>
+        <v>23.071000000000002</v>
       </c>
       <c r="D80" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2018,13 +1977,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>677.71666666666658</v>
+        <v>677.72222222222229</v>
       </c>
       <c r="C81" s="1">
-        <v>243.97800000000001</v>
+        <v>24.398</v>
       </c>
       <c r="D81" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2032,13 +1991,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>716.69444444444434</v>
+        <v>716.69444444444446</v>
       </c>
       <c r="C82" s="1">
-        <v>258.01</v>
+        <v>25.800999999999998</v>
       </c>
       <c r="D82" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2046,13 +2005,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>13.813888888888888</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="C83" s="1">
-        <v>4.9729999999999999</v>
+        <v>0.498</v>
       </c>
       <c r="D83" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,13 +2019,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>359.54722222222222</v>
+        <v>359.52777777777783</v>
       </c>
       <c r="C84" s="1">
-        <v>129.43700000000001</v>
+        <v>12.943</v>
       </c>
       <c r="D84" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,13 +2033,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>1065.6055555555556</v>
+        <v>1065.6111111111113</v>
       </c>
       <c r="C85" s="1">
-        <v>383.61799999999999</v>
+        <v>38.362000000000002</v>
       </c>
       <c r="D85" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2088,13 +2047,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>533.92222222222222</v>
+        <v>533.91666666666663</v>
       </c>
       <c r="C86" s="1">
-        <v>192.21199999999999</v>
+        <v>19.221</v>
       </c>
       <c r="D86" s="1">
-        <v>2.7777777777777781</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,13 +2061,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>561.32500000000005</v>
+        <v>561.33333333333337</v>
       </c>
       <c r="C87" s="1">
-        <v>202.077</v>
+        <v>20.207999999999998</v>
       </c>
       <c r="D87" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2119,10 +2078,10 @@
         <v>3254.25</v>
       </c>
       <c r="C88" s="1">
-        <v>1171.53</v>
+        <v>117.15300000000001</v>
       </c>
       <c r="D88" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,13 +2089,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>5823.85</v>
+        <v>5823.8333333333339</v>
       </c>
       <c r="C89" s="1">
-        <v>2096.5859999999998</v>
+        <v>209.65799999999999</v>
       </c>
       <c r="D89" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,13 +2103,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>864.74722222222226</v>
+        <v>864.75</v>
       </c>
       <c r="C90" s="1">
-        <v>311.30900000000003</v>
+        <v>31.131</v>
       </c>
       <c r="D90" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,13 +2117,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>62.875</v>
+        <v>62.888888888888893</v>
       </c>
       <c r="C91" s="1">
-        <v>22.635000000000002</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="D91" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2172,13 +2131,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>866.71666666666658</v>
+        <v>866.72222222222229</v>
       </c>
       <c r="C92" s="1">
-        <v>312.01799999999997</v>
+        <v>31.202000000000002</v>
       </c>
       <c r="D92" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,13 +2145,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>1511.3472222222222</v>
+        <v>1511.3333333333335</v>
       </c>
       <c r="C93" s="1">
-        <v>544.08500000000004</v>
+        <v>54.408000000000001</v>
       </c>
       <c r="D93" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,13 +2159,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>1101.1888888888889</v>
+        <v>1101.1944444444446</v>
       </c>
       <c r="C94" s="1">
-        <v>396.428</v>
+        <v>39.643000000000001</v>
       </c>
       <c r="D94" s="1">
-        <v>2.7777777777777772</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2214,13 +2173,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>685.49722222222226</v>
+        <v>685.5</v>
       </c>
       <c r="C95" s="1">
-        <v>246.779</v>
+        <v>24.678000000000001</v>
       </c>
       <c r="D95" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2228,13 +2187,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>6871.7027777777776</v>
+        <v>6871.6944444444453</v>
       </c>
       <c r="C96" s="1">
-        <v>2473.8130000000001</v>
+        <v>247.381</v>
       </c>
       <c r="D96" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,13 +2201,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>6697.4805555555549</v>
+        <v>6697.4722222222217</v>
       </c>
       <c r="C97" s="1">
-        <v>2411.0929999999998</v>
+        <v>241.10900000000001</v>
       </c>
       <c r="D97" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,13 +2215,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>1248.4222222222222</v>
+        <v>1248.4444444444446</v>
       </c>
       <c r="C98" s="1">
-        <v>449.43200000000002</v>
+        <v>44.944000000000003</v>
       </c>
       <c r="D98" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,13 +2229,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>2433.2555555555555</v>
+        <v>2433.2777777777778</v>
       </c>
       <c r="C99" s="1">
-        <v>875.97199999999998</v>
+        <v>87.597999999999999</v>
       </c>
       <c r="D99" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2284,13 +2243,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>827.45833333333326</v>
+        <v>827.47222222222229</v>
       </c>
       <c r="C100" s="1">
-        <v>297.88499999999999</v>
+        <v>29.789000000000001</v>
       </c>
       <c r="D100" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,13 +2257,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>2974.088888888889</v>
+        <v>2974.1111111111109</v>
       </c>
       <c r="C101" s="1">
-        <v>1070.672</v>
+        <v>107.068</v>
       </c>
       <c r="D101" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2312,13 +2271,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>1957.0611111111109</v>
+        <v>1957.0555555555554</v>
       </c>
       <c r="C102" s="1">
-        <v>704.54200000000003</v>
+        <v>70.453999999999994</v>
       </c>
       <c r="D102" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2326,13 +2285,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>4926.4388888888889</v>
+        <v>4926.416666666667</v>
       </c>
       <c r="C103" s="1">
-        <v>1773.518</v>
+        <v>177.351</v>
       </c>
       <c r="D103" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,13 +2299,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>5691.5861111111108</v>
+        <v>5691.5833333333339</v>
       </c>
       <c r="C104" s="1">
-        <v>2048.971</v>
+        <v>204.89699999999999</v>
       </c>
       <c r="D104" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2354,13 +2313,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>3622.6861111111111</v>
+        <v>3622.6944444444443</v>
       </c>
       <c r="C105" s="1">
-        <v>1304.1669999999999</v>
+        <v>130.417</v>
       </c>
       <c r="D105" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,13 +2327,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>1539.5222222222224</v>
+        <v>1539.5277777777778</v>
       </c>
       <c r="C106" s="1">
-        <v>554.22799999999995</v>
+        <v>55.423000000000002</v>
       </c>
       <c r="D106" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,13 +2341,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>3880.2722222222219</v>
+        <v>3880.25</v>
       </c>
       <c r="C107" s="1">
-        <v>1396.8979999999999</v>
+        <v>139.68899999999999</v>
       </c>
       <c r="D107" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,13 +2355,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>2949.1055555555554</v>
+        <v>2949.1111111111109</v>
       </c>
       <c r="C108" s="1">
-        <v>1061.6780000000001</v>
+        <v>106.16800000000001</v>
       </c>
       <c r="D108" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,13 +2369,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>505.04722222222222</v>
+        <v>505.05555555555554</v>
       </c>
       <c r="C109" s="1">
-        <v>181.81700000000001</v>
+        <v>18.181999999999999</v>
       </c>
       <c r="D109" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2424,13 +2383,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>584.42499999999995</v>
+        <v>584.44444444444446</v>
       </c>
       <c r="C110" s="1">
-        <v>210.393</v>
+        <v>21.04</v>
       </c>
       <c r="D110" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,10 +2400,10 @@
         <v>4585.3888888888887</v>
       </c>
       <c r="C111" s="1">
-        <v>1650.74</v>
+        <v>165.07400000000001</v>
       </c>
       <c r="D111" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2452,13 +2411,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>3261.3472222222222</v>
+        <v>3261.3611111111109</v>
       </c>
       <c r="C112" s="1">
-        <v>1174.085</v>
+        <v>117.40900000000001</v>
       </c>
       <c r="D112" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2466,13 +2425,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>6225.5388888888892</v>
+        <v>6225.5555555555557</v>
       </c>
       <c r="C113" s="1">
-        <v>2241.194</v>
+        <v>224.12</v>
       </c>
       <c r="D113" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,13 +2439,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>1950.1083333333333</v>
+        <v>1950.1111111111113</v>
       </c>
       <c r="C114" s="1">
-        <v>702.03899999999999</v>
+        <v>70.203999999999994</v>
       </c>
       <c r="D114" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2494,13 +2453,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>2863.1138888888891</v>
+        <v>2863.1111111111109</v>
       </c>
       <c r="C115" s="1">
-        <v>1030.721</v>
+        <v>103.072</v>
       </c>
       <c r="D115" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2508,13 +2467,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>1849.3027777777777</v>
+        <v>1849.3055555555554</v>
       </c>
       <c r="C116" s="1">
-        <v>665.74900000000002</v>
+        <v>66.575000000000003</v>
       </c>
       <c r="D116" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,13 +2481,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>11.505555555555555</v>
+        <v>11.5</v>
       </c>
       <c r="C117" s="1">
-        <v>4.1420000000000003</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D117" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2536,13 +2495,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>606.31944444444434</v>
+        <v>606.30555555555566</v>
       </c>
       <c r="C118" s="1">
-        <v>218.27500000000001</v>
+        <v>21.827000000000002</v>
       </c>
       <c r="D118" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2550,13 +2509,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>620.86944444444441</v>
+        <v>620.86111111111109</v>
       </c>
       <c r="C119" s="1">
-        <v>223.51300000000001</v>
+        <v>22.350999999999999</v>
       </c>
       <c r="D119" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2564,13 +2523,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>17.788888888888888</v>
+        <v>17.805555555555554</v>
       </c>
       <c r="C120" s="1">
-        <v>6.4039999999999999</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D120" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777775</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,13 +2537,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>11.155555555555555</v>
+        <v>11.166666666666668</v>
       </c>
       <c r="C121" s="1">
-        <v>4.016</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D121" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777782</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,13 +2551,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>6.5777777777777775</v>
+        <v>6.5833333333333339</v>
       </c>
       <c r="C122" s="1">
-        <v>2.3679999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D122" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,13 +2565,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="1">
-        <v>611.92499999999995</v>
+        <v>611.94444444444446</v>
       </c>
       <c r="C123" s="1">
-        <v>220.29300000000001</v>
+        <v>22.03</v>
       </c>
       <c r="D123" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2620,13 +2579,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>533.58611111111111</v>
+        <v>533.61111111111109</v>
       </c>
       <c r="C124" s="1">
-        <v>192.09100000000001</v>
+        <v>19.21</v>
       </c>
       <c r="D124" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,13 +2593,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>1798.5111111111109</v>
+        <v>1798.5</v>
       </c>
       <c r="C125" s="1">
-        <v>647.46400000000006</v>
+        <v>64.745999999999995</v>
       </c>
       <c r="D125" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,13 +2607,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>738.13055555555547</v>
+        <v>738.11111111111109</v>
       </c>
       <c r="C126" s="1">
-        <v>265.72699999999998</v>
+        <v>26.571999999999999</v>
       </c>
       <c r="D126" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2662,13 +2621,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>1572.5583333333332</v>
+        <v>1572.5555555555554</v>
       </c>
       <c r="C127" s="1">
-        <v>566.12099999999998</v>
+        <v>56.612000000000002</v>
       </c>
       <c r="D127" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,13 +2635,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>7185.8277777777776</v>
+        <v>7185.8333333333339</v>
       </c>
       <c r="C128" s="1">
-        <v>2586.8980000000001</v>
+        <v>258.69</v>
       </c>
       <c r="D128" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2690,13 +2649,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="1">
-        <v>3670.3777777777777</v>
+        <v>3670.3888888888891</v>
       </c>
       <c r="C129" s="1">
-        <v>1321.336</v>
+        <v>132.13399999999999</v>
       </c>
       <c r="D129" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,13 +2663,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="1">
-        <v>18078.8</v>
+        <v>18078.805555555555</v>
       </c>
       <c r="C130" s="1">
-        <v>6508.3680000000004</v>
+        <v>650.83699999999999</v>
       </c>
       <c r="D130" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2718,13 +2677,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>432.05833333333334</v>
+        <v>432.05555555555554</v>
       </c>
       <c r="C131" s="1">
-        <v>155.541</v>
+        <v>15.554</v>
       </c>
       <c r="D131" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2732,13 +2691,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>2929.1944444444443</v>
+        <v>2929.2222222222226</v>
       </c>
       <c r="C132" s="1">
-        <v>1054.51</v>
+        <v>105.452</v>
       </c>
       <c r="D132" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,13 +2705,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="1">
-        <v>675.65277777777771</v>
+        <v>675.63888888888891</v>
       </c>
       <c r="C133" s="1">
-        <v>243.23500000000001</v>
+        <v>24.323</v>
       </c>
       <c r="D133" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,13 +2719,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>3150.9888888888891</v>
+        <v>3150.9722222222226</v>
       </c>
       <c r="C134" s="1">
-        <v>1134.356</v>
+        <v>113.435</v>
       </c>
       <c r="D134" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2774,13 +2733,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>3004.9083333333328</v>
+        <v>3004.8888888888891</v>
       </c>
       <c r="C135" s="1">
-        <v>1081.7670000000001</v>
+        <v>108.176</v>
       </c>
       <c r="D135" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2791,10 +2750,10 @@
         <v>2490.75</v>
       </c>
       <c r="C136" s="1">
-        <v>896.67</v>
+        <v>89.667000000000002</v>
       </c>
       <c r="D136" s="1">
-        <v>2.7777777777777777</v>
+        <v>27.777777777777779</v>
       </c>
     </row>
   </sheetData>
